--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T16:40:30+00:00</t>
+    <t>2024-08-08T19:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T19:03:14+00:00</t>
+    <t>2024-08-12T19:06:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-12T19:06:04+00:00</t>
+    <t>2024-08-20T21:48:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:48:07+00:00</t>
+    <t>2024-08-22T16:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -8235,7 +8235,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>78</v>
@@ -8310,7 +8310,7 @@
         <v>315</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>78</v>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-22T16:27:20+00:00</t>
+    <t>2024-09-10T18:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T18:56:29+00:00</t>
+    <t>2024-09-12T18:14:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T18:14:21+00:00</t>
+    <t>2024-09-13T20:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T20:57:31+00:00</t>
+    <t>2024-09-16T16:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T16:04:42+00:00</t>
+    <t>2024-09-18T19:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T19:34:29+00:00</t>
+    <t>2024-09-25T18:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T18:09:20+00:00</t>
+    <t>2024-09-26T15:36:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T15:36:52+00:00</t>
+    <t>2024-09-26T17:33:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T17:33:09+00:00</t>
+    <t>2024-09-26T18:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T18:25:51+00:00</t>
+    <t>2024-09-26T19:08:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T19:08:25+00:00</t>
+    <t>2024-10-07T20:39:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T20:39:38+00:00</t>
+    <t>2024-10-08T12:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T12:54:01+00:00</t>
+    <t>2024-10-08T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T13:48:24+00:00</t>
+    <t>2024-10-28T19:33:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T19:33:15+00:00</t>
+    <t>2024-10-30T18:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3306" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="325">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T18:30:14+00:00</t>
+    <t>2024-11-25T15:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1024,108 +1024,6 @@
   </si>
   <si>
     <t>The type of data contained in this file. Should be as detailed as possible, e.g., Whole Exome Variant Calls.</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile</t>
-  </si>
-  <si>
-    <t>Provides a reference to another file that is related to this one</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.id</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.meta</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.implicitRules</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.language</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.text</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.contained</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.extension</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.modifierExtension</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.identifier</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.status</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.mode</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.title</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.code</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.subject</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.encounter</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.date</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.source</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.orderedBy</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.note</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.entry</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.entry.id</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.entry.extension</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.entry.modifierExtension</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.entry.flag</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.entry.deleted</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.entry.date</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.entry.item</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.emptyReason</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.file</t>
-  </si>
-  <si>
-    <t>The file to which this related file is related</t>
-  </si>
-  <si>
-    <t>SharedDataModelFile.relatedFile.type</t>
-  </si>
-  <si>
-    <t>The relationship of the file to the parent file in reference</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1328,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ102"/>
+  <dimension ref="A1:AJ71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1439,8 +1337,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.5625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="53.5625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -8722,3174 +8620,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="P80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="P83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="P84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="P85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="P86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="P89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="P90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O94" s="2"/>
-      <c r="P94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="P95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="P96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q97" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="P98" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="P100" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T15:36:07+00:00</t>
+    <t>2025-01-06T15:08:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T15:08:44+00:00</t>
+    <t>2025-01-10T20:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:53:40+00:00</t>
+    <t>2025-01-13T15:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:02:43+00:00</t>
+    <t>2025-01-13T16:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:25:54+00:00</t>
+    <t>2025-01-14T18:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T18:54:07+00:00</t>
+    <t>2025-01-27T23:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T23:56:01+00:00</t>
+    <t>2025-01-28T00:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T00:06:22+00:00</t>
+    <t>2025-02-07T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:45:47+00:00</t>
+    <t>2025-03-11T16:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T16:55:01+00:00</t>
+    <t>2025-03-24T15:08:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T15:08:47+00:00</t>
+    <t>2025-05-11T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1337,17 +1337,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="51.109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.81640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.81640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.67578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.3046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1356,21 +1356,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.79296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="85.91796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.546875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="40.578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.25390625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.66015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="37.33203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.7890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="322">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:22:51+00:00</t>
+    <t>2025-06-13T15:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -291,17 +291,13 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where(((id.exists() and ('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url)))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(uri) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-3:An entry date can only be used if the mode of the list is "working" {mode = 'working' or entry.date.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-3:An entry date can only be used if the mode of the list is "working" {mode = 'working' or entry.date.empty()}</t>
   </si>
   <si>
     <t>SharedDataModelFile.location.id</t>
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Logical id of this artifact</t>
@@ -370,7 +366,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>IETF language tag</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -425,10 +421,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
-  </si>
-  <si>
     <t>SharedDataModelFile.location.extension</t>
   </si>
   <si>
@@ -466,7 +458,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4B/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -506,7 +498,7 @@
     <t>The current state of the list.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-status|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/list-status|4.0.1</t>
   </si>
   <si>
     <t>List.status</t>
@@ -530,7 +522,7 @@
     <t>The processing mode that applies to this list.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-mode|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/list-mode|4.0.1</t>
   </si>
   <si>
     <t>List.mode</t>
@@ -731,10 +723,6 @@
   </si>
   <si>
     <t xml:space="preserve">lst-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
 </t>
   </si>
   <si>
@@ -2012,16 +2000,16 @@
         <v>92</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2071,7 +2059,7 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>73</v>
@@ -2088,10 +2076,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2114,13 +2102,13 @@
         <v>92</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2171,27 +2159,27 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2214,16 +2202,16 @@
         <v>92</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2273,7 +2261,7 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>73</v>
@@ -2285,15 +2273,15 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2319,13 +2307,13 @@
         <v>85</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2351,32 +2339,32 @@
         <v>20</v>
       </c>
       <c r="X10" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y10" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y10" t="s" s="2">
+      <c r="Z10" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z10" t="s" s="2">
+      <c r="AA10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AA10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
       </c>
@@ -2387,19 +2375,19 @@
         <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2418,16 +2406,16 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2477,7 +2465,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>73</v>
@@ -2489,19 +2477,19 @@
         <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2520,16 +2508,16 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2579,7 +2567,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>73</v>
@@ -2591,19 +2579,19 @@
         <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2622,16 +2610,16 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2681,7 +2669,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
@@ -2693,19 +2681,19 @@
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2724,19 +2712,19 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O14" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -2785,7 +2773,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>73</v>
@@ -2797,15 +2785,15 @@
         <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2828,13 +2816,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2885,7 +2873,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>73</v>
@@ -2897,15 +2885,15 @@
         <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2931,13 +2919,13 @@
         <v>85</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -2963,32 +2951,32 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
@@ -2999,15 +2987,15 @@
         <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3033,16 +3021,16 @@
         <v>85</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3067,32 +3055,32 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3103,15 +3091,15 @@
         <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3137,14 +3125,14 @@
         <v>82</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3157,7 +3145,7 @@
         <v>20</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>20</v>
@@ -3193,7 +3181,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>73</v>
@@ -3205,15 +3193,15 @@
         <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3236,19 +3224,19 @@
         <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -3273,32 +3261,32 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Z19" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="AA19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>182</v>
-      </c>
       <c r="AG19" t="s" s="2">
         <v>73</v>
       </c>
@@ -3309,15 +3297,15 @@
         <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3340,19 +3328,19 @@
         <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -3401,7 +3389,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
@@ -3413,15 +3401,15 @@
         <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3444,13 +3432,13 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3501,7 +3489,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
@@ -3513,15 +3501,15 @@
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3544,19 +3532,19 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -3605,7 +3593,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -3617,19 +3605,19 @@
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3648,19 +3636,19 @@
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -3709,7 +3697,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>73</v>
@@ -3721,15 +3709,15 @@
         <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3752,19 +3740,19 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -3789,32 +3777,32 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y24" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="AG24" t="s" s="2">
         <v>73</v>
       </c>
@@ -3825,15 +3813,15 @@
         <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3856,13 +3844,13 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3913,7 +3901,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
@@ -3925,15 +3913,15 @@
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3956,16 +3944,16 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4015,7 +4003,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
@@ -4024,18 +4012,18 @@
         <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>230</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4061,10 +4049,10 @@
         <v>82</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4115,7 +4103,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>73</v>
@@ -4132,14 +4120,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4158,16 +4146,16 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4217,7 +4205,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
@@ -4229,19 +4217,19 @@
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4260,19 +4248,19 @@
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -4321,7 +4309,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -4333,15 +4321,15 @@
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4364,19 +4352,19 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -4401,13 +4389,13 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -4425,7 +4413,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -4437,15 +4425,15 @@
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4468,90 +4456,90 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="P31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q31" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="R31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="O31" t="s" s="2">
+      <c r="AG31" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI31" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="P31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q31" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4574,17 +4562,17 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -4633,7 +4621,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
@@ -4645,15 +4633,15 @@
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4676,13 +4664,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4733,7 +4721,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -4745,15 +4733,15 @@
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4776,19 +4764,19 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="O34" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -4813,13 +4801,13 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -4837,7 +4825,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
@@ -4846,18 +4834,18 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4880,13 +4868,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4937,7 +4925,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -4954,10 +4942,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4983,10 +4971,10 @@
         <v>79</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5037,7 +5025,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>73</v>
@@ -5054,10 +5042,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5080,13 +5068,13 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5137,7 +5125,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5154,10 +5142,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5183,10 +5171,10 @@
         <v>88</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5237,7 +5225,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
@@ -5254,10 +5242,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5280,16 +5268,16 @@
         <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5339,7 +5327,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>73</v>
@@ -5356,10 +5344,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5382,13 +5370,13 @@
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5439,27 +5427,27 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>103</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5482,16 +5470,16 @@
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -5541,7 +5529,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
@@ -5553,15 +5541,15 @@
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5587,13 +5575,13 @@
         <v>85</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5619,32 +5607,32 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y42" t="s" s="2">
+      <c r="Z42" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z42" t="s" s="2">
+      <c r="AA42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AA42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="AG42" t="s" s="2">
         <v>73</v>
       </c>
@@ -5655,19 +5643,19 @@
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -5686,16 +5674,16 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -5745,7 +5733,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>73</v>
@@ -5757,19 +5745,19 @@
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -5788,16 +5776,16 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -5847,7 +5835,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
@@ -5859,19 +5847,19 @@
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -5890,16 +5878,16 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -5949,7 +5937,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
@@ -5961,19 +5949,19 @@
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -5992,19 +5980,19 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O46" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -6053,7 +6041,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
@@ -6065,15 +6053,15 @@
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6096,13 +6084,13 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6153,7 +6141,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
@@ -6165,15 +6153,15 @@
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6199,13 +6187,13 @@
         <v>85</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6231,32 +6219,32 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="Y48" t="s" s="2">
+      <c r="AA48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF48" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
@@ -6267,15 +6255,15 @@
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6301,16 +6289,16 @@
         <v>85</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -6335,32 +6323,32 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
@@ -6371,15 +6359,15 @@
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6405,14 +6393,14 @@
         <v>82</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -6425,7 +6413,7 @@
         <v>20</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>20</v>
@@ -6461,7 +6449,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
@@ -6473,15 +6461,15 @@
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6504,19 +6492,19 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -6541,32 +6529,32 @@
         <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="AA51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF51" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>182</v>
-      </c>
       <c r="AG51" t="s" s="2">
         <v>73</v>
       </c>
@@ -6577,15 +6565,15 @@
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6608,19 +6596,19 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -6669,7 +6657,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>73</v>
@@ -6681,15 +6669,15 @@
         <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6712,13 +6700,13 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -6769,7 +6757,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>73</v>
@@ -6781,15 +6769,15 @@
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6812,19 +6800,19 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -6873,7 +6861,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>73</v>
@@ -6885,19 +6873,19 @@
         <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -6916,19 +6904,19 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
@@ -6977,7 +6965,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>73</v>
@@ -6989,15 +6977,15 @@
         <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7020,19 +7008,19 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="O56" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -7057,32 +7045,32 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="AG56" t="s" s="2">
         <v>73</v>
       </c>
@@ -7093,15 +7081,15 @@
         <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7124,13 +7112,13 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7181,7 +7169,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>73</v>
@@ -7193,15 +7181,15 @@
         <v>20</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7224,16 +7212,16 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -7283,7 +7271,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>73</v>
@@ -7292,18 +7280,18 @@
         <v>74</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>230</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7329,10 +7317,10 @@
         <v>82</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7383,7 +7371,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>73</v>
@@ -7400,14 +7388,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -7426,16 +7414,16 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -7485,7 +7473,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>73</v>
@@ -7497,19 +7485,19 @@
         <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -7528,19 +7516,19 @@
         <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -7589,7 +7577,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>73</v>
@@ -7601,15 +7589,15 @@
         <v>20</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7632,19 +7620,19 @@
         <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="O62" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -7669,13 +7657,13 @@
         <v>20</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>20</v>
@@ -7693,7 +7681,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>73</v>
@@ -7705,15 +7693,15 @@
         <v>20</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -7736,90 +7724,90 @@
         <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="P63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q63" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="R63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF63" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="O63" t="s" s="2">
+      <c r="AG63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI63" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="P63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q63" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="AJ63" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7842,17 +7830,17 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -7901,7 +7889,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>73</v>
@@ -7913,15 +7901,15 @@
         <v>20</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -7944,13 +7932,13 @@
         <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8001,7 +7989,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -8013,15 +8001,15 @@
         <v>20</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8044,19 +8032,19 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="O66" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -8081,13 +8069,13 @@
         <v>20</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>20</v>
@@ -8105,7 +8093,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>73</v>
@@ -8114,18 +8102,18 @@
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8151,10 +8139,10 @@
         <v>85</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8205,7 +8193,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -8222,10 +8210,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8251,10 +8239,10 @@
         <v>82</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8305,7 +8293,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -8322,10 +8310,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8351,10 +8339,10 @@
         <v>82</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8405,7 +8393,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>73</v>
@@ -8422,10 +8410,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8451,10 +8439,10 @@
         <v>82</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -8505,7 +8493,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>73</v>
@@ -8522,10 +8510,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -8551,10 +8539,10 @@
         <v>85</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -8605,7 +8593,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>78</v>
@@ -1660,7 +1660,7 @@
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T17:45:57+00:00</t>
+    <t>2025-08-12T18:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SharedDataModelFile.xlsx
+++ b/StructureDefinition-SharedDataModelFile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
